--- a/Part 3- Data Analysis/data/AirPassengers.xlsx
+++ b/Part 3- Data Analysis/data/AirPassengers.xlsx
@@ -809,1601 +809,1169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="B8">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="B9">
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="B10">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="B11">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="B12">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="B13">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="B14">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="B15">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="B16">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="B17">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="B18">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="B19">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="B20">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="B21">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
+      <c r="B22">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="B23">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
+      <c r="B24">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
+      <c r="B25">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="B26">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="C27">
+      <c r="B27">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="C28">
+      <c r="B28">
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="C29">
+      <c r="B29">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="C30">
+      <c r="B30">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="C31">
+      <c r="B31">
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="C32">
+      <c r="B32">
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="C33">
+      <c r="B33">
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="C34">
+      <c r="B34">
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="C35">
+      <c r="B35">
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="C36">
+      <c r="B36">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="C37">
+      <c r="B37">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="C38">
+      <c r="B38">
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="C39">
+      <c r="B39">
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="C40">
+      <c r="B40">
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="C41">
+      <c r="B41">
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="C42">
+      <c r="B42">
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="C43">
+      <c r="B43">
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="C44">
+      <c r="B44">
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="C45">
+      <c r="B45">
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="C46">
+      <c r="B46">
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="C47">
+      <c r="B47">
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="C48">
+      <c r="B48">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="C49">
+      <c r="B49">
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="C50">
+      <c r="B50">
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="C51">
+      <c r="B51">
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="C52">
+      <c r="B52">
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="C53">
+      <c r="B53">
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="C54">
+      <c r="B54">
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="C55">
+      <c r="B55">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="C56">
+      <c r="B56">
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="C57">
+      <c r="B57">
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="C58">
+      <c r="B58">
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="C59">
+      <c r="B59">
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="C60">
+      <c r="B60">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="C61">
+      <c r="B61">
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="C62">
+      <c r="B62">
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="C63">
+      <c r="B63">
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="C64">
+      <c r="B64">
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="C65">
+      <c r="B65">
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="C66">
+      <c r="B66">
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="C67">
+      <c r="B67">
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="C68">
+      <c r="B68">
         <v>302</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="C69">
+      <c r="B69">
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="C70">
+      <c r="B70">
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="C71">
+      <c r="B71">
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="C72">
+      <c r="B72">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="C73">
+      <c r="B73">
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="C74">
+      <c r="B74">
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="C75">
+      <c r="B75">
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="C76">
+      <c r="B76">
         <v>267</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="C77">
+      <c r="B77">
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="C78">
+      <c r="B78">
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="C79">
+      <c r="B79">
         <v>315</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="C80">
+      <c r="B80">
         <v>364</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>81</v>
       </c>
-      <c r="C81">
+      <c r="B81">
         <v>347</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="C82">
+      <c r="B82">
         <v>312</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>83</v>
       </c>
-      <c r="C83">
+      <c r="B83">
         <v>274</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>84</v>
       </c>
-      <c r="C84">
+      <c r="B84">
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>85</v>
       </c>
-      <c r="C85">
+      <c r="B85">
         <v>278</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="C86">
+      <c r="B86">
         <v>284</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>87</v>
       </c>
-      <c r="C87">
+      <c r="B87">
         <v>277</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>88</v>
       </c>
-      <c r="C88">
+      <c r="B88">
         <v>317</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>89</v>
       </c>
-      <c r="C89">
+      <c r="B89">
         <v>313</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>90</v>
       </c>
-      <c r="C90">
+      <c r="B90">
         <v>318</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>91</v>
       </c>
-      <c r="C91">
+      <c r="B91">
         <v>374</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>92</v>
       </c>
-      <c r="C92">
+      <c r="B92">
         <v>413</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>93</v>
       </c>
-      <c r="C93">
+      <c r="B93">
         <v>405</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>94</v>
       </c>
-      <c r="C94">
+      <c r="B94">
         <v>355</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>95</v>
       </c>
-      <c r="C95">
+      <c r="B95">
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>96</v>
       </c>
-      <c r="C96">
+      <c r="B96">
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>97</v>
       </c>
-      <c r="C97">
+      <c r="B97">
         <v>306</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>98</v>
       </c>
-      <c r="C98">
+      <c r="B98">
         <v>315</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>99</v>
       </c>
-      <c r="C99">
+      <c r="B99">
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>100</v>
       </c>
-      <c r="C100">
+      <c r="B100">
         <v>356</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>101</v>
       </c>
-      <c r="C101">
+      <c r="B101">
         <v>348</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>102</v>
       </c>
-      <c r="C102">
+      <c r="B102">
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>103</v>
       </c>
-      <c r="C103">
+      <c r="B103">
         <v>422</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>104</v>
       </c>
-      <c r="C104">
+      <c r="B104">
         <v>465</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>105</v>
       </c>
-      <c r="C105">
+      <c r="B105">
         <v>467</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>106</v>
       </c>
-      <c r="C106">
+      <c r="B106">
         <v>404</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>107</v>
       </c>
-      <c r="C107">
+      <c r="B107">
         <v>347</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>108</v>
       </c>
-      <c r="C108">
+      <c r="B108">
         <v>305</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>109</v>
       </c>
-      <c r="C109">
+      <c r="B109">
         <v>336</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>110</v>
       </c>
-      <c r="C110">
+      <c r="B110">
         <v>340</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>111</v>
       </c>
-      <c r="C111">
+      <c r="B111">
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>112</v>
       </c>
-      <c r="C112">
+      <c r="B112">
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
         <v>113</v>
       </c>
-      <c r="C113">
+      <c r="B113">
         <v>348</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>114</v>
       </c>
-      <c r="C114">
+      <c r="B114">
         <v>363</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>115</v>
       </c>
-      <c r="C115">
+      <c r="B115">
         <v>435</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>116</v>
       </c>
-      <c r="C116">
+      <c r="B116">
         <v>491</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>117</v>
       </c>
-      <c r="C117">
+      <c r="B117">
         <v>505</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>118</v>
       </c>
-      <c r="C118">
+      <c r="B118">
         <v>404</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>119</v>
       </c>
-      <c r="C119">
+      <c r="B119">
         <v>359</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>120</v>
       </c>
-      <c r="C120">
+      <c r="B120">
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>121</v>
       </c>
-      <c r="C121">
+      <c r="B121">
         <v>337</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>122</v>
       </c>
-      <c r="C122">
+      <c r="B122">
         <v>360</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
         <v>123</v>
       </c>
-      <c r="C123">
+      <c r="B123">
         <v>342</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>124</v>
       </c>
-      <c r="C124">
+      <c r="B124">
         <v>406</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>125</v>
       </c>
-      <c r="C125">
+      <c r="B125">
         <v>396</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>126</v>
       </c>
-      <c r="C126">
+      <c r="B126">
         <v>420</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
         <v>127</v>
       </c>
-      <c r="C127">
+      <c r="B127">
         <v>472</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
         <v>128</v>
       </c>
-      <c r="C128">
+      <c r="B128">
         <v>548</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="C129">
+      <c r="B129">
         <v>559</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>130</v>
       </c>
-      <c r="C130">
+      <c r="B130">
         <v>463</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>131</v>
       </c>
-      <c r="C131">
+      <c r="B131">
         <v>407</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>132</v>
       </c>
-      <c r="C132">
+      <c r="B132">
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>133</v>
       </c>
-      <c r="C133">
+      <c r="B133">
         <v>405</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>134</v>
       </c>
-      <c r="C134">
+      <c r="B134">
         <v>417</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>135</v>
       </c>
-      <c r="C135">
+      <c r="B135">
         <v>391</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>136</v>
       </c>
-      <c r="C136">
+      <c r="B136">
         <v>419</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>137</v>
       </c>
-      <c r="C137">
+      <c r="B137">
         <v>461</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>138</v>
       </c>
-      <c r="C138">
+      <c r="B138">
         <v>472</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>139</v>
       </c>
-      <c r="C139">
+      <c r="B139">
         <v>535</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>140</v>
       </c>
-      <c r="C140">
+      <c r="B140">
         <v>622</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>141</v>
       </c>
-      <c r="C141">
+      <c r="B141">
         <v>606</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>142</v>
       </c>
-      <c r="C142">
+      <c r="B142">
         <v>508</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
         <v>143</v>
       </c>
-      <c r="C143">
+      <c r="B143">
         <v>461</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
         <v>144</v>
       </c>
-      <c r="C144">
+      <c r="B144">
         <v>390</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
         <v>145</v>
       </c>
-      <c r="C145">
+      <c r="B145">
         <v>432</v>
       </c>
     </row>

--- a/Part 3- Data Analysis/data/AirPassengers.xlsx
+++ b/Part 3- Data Analysis/data/AirPassengers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1454 +434,1886 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>TravelDate</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Passengers</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>1/1/1949</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>112</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>2/1/1949</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>118</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>3/1/1949</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>132</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>4/1/1949</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>129</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>5/1/1949</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>121</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>6/1/1949</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>7/1/1949</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>148</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>8/1/1949</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>148</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>9/1/1949</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>136</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>10/1/1949</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>119</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>11/1/1949</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>104</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>12/1/1949</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>118</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>1/1/1950</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>115</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>2/1/1950</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>126</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>3/1/1950</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>141</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>4/1/1950</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>5/1/1950</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>125</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>6/1/1950</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>149</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>7/1/1950</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>170</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>8/1/1950</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>170</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>9/1/1950</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>158</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>10/1/1950</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>133</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>11/1/1950</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>114</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>12/1/1950</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>140</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>1/1/1951</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>145</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>2/1/1951</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>3/1/1951</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>178</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>4/1/1951</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>163</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>5/1/1951</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>172</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>6/1/1951</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>178</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>7/1/1951</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>199</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>8/1/1951</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>199</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>9/1/1951</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>184</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>10/1/1951</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>162</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>11/1/1951</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>146</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>12/1/1951</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" t="n">
         <v>166</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>1/1/1952</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>171</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>2/1/1952</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>3/1/1952</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>193</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>4/1/1952</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>181</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>5/1/1952</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>183</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>6/1/1952</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="C43" t="n">
         <v>218</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>7/1/1952</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="C44" t="n">
         <v>230</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>8/1/1952</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="C45" t="n">
         <v>242</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>9/1/1952</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="C46" t="n">
         <v>209</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>10/1/1952</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="C47" t="n">
         <v>191</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>11/1/1952</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="C48" t="n">
         <v>172</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>12/1/1952</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="C49" t="n">
         <v>194</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>1/1/1953</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="C50" t="n">
         <v>196</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>2/1/1953</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="C51" t="n">
         <v>196</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>3/1/1953</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="C52" t="n">
         <v>236</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>4/1/1953</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="C53" t="n">
         <v>235</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>5/1/1953</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="C54" t="n">
         <v>229</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>6/1/1953</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="C55" t="n">
         <v>243</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>7/1/1953</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="C56" t="n">
         <v>264</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>8/1/1953</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="C57" t="n">
         <v>272</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>9/1/1953</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="C58" t="n">
         <v>237</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>10/1/1953</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="C59" t="n">
         <v>211</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>11/1/1953</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="C60" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>12/1/1953</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="C61" t="n">
         <v>201</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>1/1/1954</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="C62" t="n">
         <v>204</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>2/1/1954</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="C63" t="n">
         <v>188</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>3/1/1954</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="C64" t="n">
         <v>235</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>4/1/1954</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="C65" t="n">
         <v>227</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>5/1/1954</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="C66" t="n">
         <v>234</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>6/1/1954</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="C67" t="n">
         <v>264</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>7/1/1954</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="C68" t="n">
         <v>302</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>8/1/1954</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="C69" t="n">
         <v>293</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>9/1/1954</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="C70" t="n">
         <v>259</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>10/1/1954</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="C71" t="n">
         <v>229</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>11/1/1954</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="C72" t="n">
         <v>203</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>12/1/1954</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="C73" t="n">
         <v>229</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>1/1/1955</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="C74" t="n">
         <v>242</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>2/1/1955</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="C75" t="n">
         <v>233</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>3/1/1955</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="C76" t="n">
         <v>267</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>4/1/1955</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="C77" t="n">
         <v>269</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>5/1/1955</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="C78" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>6/1/1955</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="C79" t="n">
         <v>315</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>7/1/1955</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="C80" t="n">
         <v>364</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>8/1/1955</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="C81" t="n">
         <v>347</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>9/1/1955</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="C82" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>10/1/1955</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="C83" t="n">
         <v>274</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>11/1/1955</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="C84" t="n">
         <v>237</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>12/1/1955</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="C85" t="n">
         <v>278</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>1/1/1956</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="C86" t="n">
         <v>284</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>2/1/1956</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="C87" t="n">
         <v>277</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>3/1/1956</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="C88" t="n">
         <v>317</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>4/1/1956</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="C89" t="n">
         <v>313</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>5/1/1956</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="C90" t="n">
         <v>318</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>6/1/1956</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="C91" t="n">
         <v>374</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>7/1/1956</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="C92" t="n">
         <v>413</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>8/1/1956</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="C93" t="n">
         <v>405</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>9/1/1956</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="C94" t="n">
         <v>355</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>10/1/1956</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="C95" t="n">
         <v>306</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>11/1/1956</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="C96" t="n">
         <v>271</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>12/1/1956</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="C97" t="n">
         <v>306</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>1/1/1957</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="C98" t="n">
         <v>315</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>2/1/1957</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="C99" t="n">
         <v>301</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>3/1/1957</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="C100" t="n">
         <v>356</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>4/1/1957</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="C101" t="n">
         <v>348</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>5/1/1957</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="C102" t="n">
         <v>355</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>6/1/1957</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="C103" t="n">
         <v>422</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>7/1/1957</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="C104" t="n">
         <v>465</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>8/1/1957</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="C105" t="n">
         <v>467</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>9/1/1957</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="C106" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>10/1/1957</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="C107" t="n">
         <v>347</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>11/1/1957</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="C108" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>12/1/1957</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="C109" t="n">
         <v>336</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>1/1/1958</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="C110" t="n">
         <v>340</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>2/1/1958</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="C111" t="n">
         <v>318</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>3/1/1958</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="C112" t="n">
         <v>362</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>4/1/1958</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="C113" t="n">
         <v>348</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>5/1/1958</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="C114" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>6/1/1958</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="C115" t="n">
         <v>435</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>7/1/1958</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="C116" t="n">
         <v>491</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>8/1/1958</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="C117" t="n">
         <v>505</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>9/1/1958</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="C118" t="n">
         <v>404</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>10/1/1958</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="C119" t="n">
         <v>359</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>11/1/1958</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="C120" t="n">
         <v>310</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>12/1/1958</t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="C121" t="n">
         <v>337</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>1/1/1959</t>
         </is>
       </c>
-      <c r="B122" t="n">
+      <c r="C122" t="n">
         <v>360</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>2/1/1959</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="C123" t="n">
         <v>342</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>3/1/1959</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="C124" t="n">
         <v>406</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>4/1/1959</t>
         </is>
       </c>
-      <c r="B125" t="n">
+      <c r="C125" t="n">
         <v>396</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>5/1/1959</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="C126" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>6/1/1959</t>
         </is>
       </c>
-      <c r="B127" t="n">
+      <c r="C127" t="n">
         <v>472</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>7/1/1959</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="C128" t="n">
         <v>548</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>8/1/1959</t>
         </is>
       </c>
-      <c r="B129" t="n">
+      <c r="C129" t="n">
         <v>559</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>9/1/1959</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="C130" t="n">
         <v>463</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>10/1/1959</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="C131" t="n">
         <v>407</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>11/1/1959</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="C132" t="n">
         <v>362</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>12/1/1959</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="C133" t="n">
         <v>405</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>1/1/1960</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="C134" t="n">
         <v>417</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>2/1/1960</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="C135" t="n">
         <v>391</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>3/1/1960</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="C136" t="n">
         <v>419</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>4/1/1960</t>
         </is>
       </c>
-      <c r="B137" t="n">
+      <c r="C137" t="n">
         <v>461</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>5/1/1960</t>
         </is>
       </c>
-      <c r="B138" t="n">
+      <c r="C138" t="n">
         <v>472</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>6/1/1960</t>
         </is>
       </c>
-      <c r="B139" t="n">
+      <c r="C139" t="n">
         <v>535</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>7/1/1960</t>
         </is>
       </c>
-      <c r="B140" t="n">
+      <c r="C140" t="n">
         <v>622</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>8/1/1960</t>
         </is>
       </c>
-      <c r="B141" t="n">
+      <c r="C141" t="n">
         <v>606</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>9/1/1960</t>
         </is>
       </c>
-      <c r="B142" t="n">
+      <c r="C142" t="n">
         <v>508</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>10/1/1960</t>
         </is>
       </c>
-      <c r="B143" t="n">
+      <c r="C143" t="n">
         <v>461</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>11/1/1960</t>
         </is>
       </c>
-      <c r="B144" t="n">
+      <c r="C144" t="n">
         <v>390</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>12/1/1960</t>
         </is>
       </c>
-      <c r="B145" t="n">
+      <c r="C145" t="n">
         <v>432</v>
       </c>
     </row>
